--- a/mappingCorps/ig/StructureDefinition-fr-lm-habitus-mode-de-vie-entree.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-habitus-mode-de-vie-entree.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T14:59:20+00:00</t>
+    <t>2026-01-22T09:24:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-habitus-mode-de-vie-entree.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-habitus-mode-de-vie-entree.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T09:24:45+00:00</t>
+    <t>2026-01-22T13:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-habitus-mode-de-vie-entree.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-habitus-mode-de-vie-entree.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T13:29:51+00:00</t>
+    <t>2026-01-26T10:27:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-habitus-mode-de-vie-entree.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-habitus-mode-de-vie-entree.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-26T10:27:23+00:00</t>
+    <t>2026-02-03T11:02:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-habitus-mode-de-vie-entree.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-habitus-mode-de-vie-entree.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="137">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-03T11:02:09+00:00</t>
+    <t>2026-02-04T10:58:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -271,6 +271,136 @@
   </si>
   <si>
     <t>Code de l'entrée. Élément observé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>fr-lm-habitus-mode-de-vie-entree.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>fr-lm-habitus-mode-de-vie-entree.code.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>fr-lm-habitus-mode-de-vie-entree.code.coding</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>fr-lm-habitus-mode-de-vie-entree.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>fr-lm-habitus-mode-de-vie-entree.code.precision</t>
+  </si>
+  <si>
+    <t>Précision sur l'élément observé</t>
+  </si>
+  <si>
+    <t>fr-lm-habitus-mode-de-vie-entree.code.precision.id</t>
+  </si>
+  <si>
+    <t>fr-lm-habitus-mode-de-vie-entree.code.precision.extension</t>
+  </si>
+  <si>
+    <t>fr-lm-habitus-mode-de-vie-entree.code.precision.coding</t>
+  </si>
+  <si>
+    <t>fr-lm-habitus-mode-de-vie-entree.code.precision.text</t>
+  </si>
+  <si>
+    <t>fr-lm-habitus-mode-de-vie-entree.code.precision.name</t>
+  </si>
+  <si>
+    <t>Nom du qualifier</t>
+  </si>
+  <si>
+    <t>fr-lm-habitus-mode-de-vie-entree.code.precision.value</t>
+  </si>
+  <si>
+    <t>Valeur du qualifier</t>
   </si>
   <si>
     <t>fr-lm-habitus-mode-de-vie-entree.description</t>
@@ -611,7 +741,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ8"/>
+  <dimension ref="A1:AJ19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -620,10 +750,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.77734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="36.77734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.30859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="47.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="10.83984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
@@ -634,7 +764,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.4296875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="196.6875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -648,10 +778,10 @@
     <col min="26" max="26" width="16.828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="36.77734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="44.078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
@@ -1064,15 +1194,15 @@
         <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1080,7 +1210,7 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>79</v>
@@ -1095,13 +1225,13 @@
         <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1152,10 +1282,10 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>79</v>
@@ -1169,21 +1299,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>73</v>
@@ -1195,15 +1325,17 @@
         <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N6" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="N6" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
         <v>73</v>
@@ -1240,39 +1372,39 @@
         <v>73</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1283,7 +1415,7 @@
         <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>73</v>
@@ -1292,19 +1424,23 @@
         <v>73</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O7" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="P7" t="s" s="2">
         <v>73</v>
       </c>
@@ -1352,27 +1488,27 @@
         <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1380,7 +1516,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>79</v>
@@ -1392,19 +1528,23 @@
         <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O8" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="P8" t="s" s="2">
         <v>73</v>
       </c>
@@ -1452,18 +1592,1128 @@
         <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AG8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
+      <c r="M11" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="P13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>73</v>
       </c>
     </row>
